--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile for recording findings about stroke onset circumstances (In-hospital, Wake-up).</t>
+    <t>Profile for recording findings about stroke onset circumstances (In-hospital, Wake-up).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,8 +523,8 @@
     <t>Observation.instantiates[x]</t>
   </si>
   <si>
-    <t>canonical(ObservationDefinition)
-Reference(ObservationDefinition)</t>
+    <t>canonical(ObservationDefinition|5.0.0)
+Reference(ObservationDefinition|5.0.0)</t>
   </si>
   <si>
     <t>Instantiates FHIR ObservationDefinition</t>
@@ -549,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -773,7 +773,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -857,7 +857,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1061,7 +1061,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1093,7 +1093,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1151,7 +1151,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-8
@@ -1173,7 +1173,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure)
+    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|5.0.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1216,7 +1216,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|Group)
+    <t xml:space="preserve">Reference(Specimen|5.0.0|Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|5.0.0|DeviceMetric|5.0.0)
 </t>
   </si>
   <si>
@@ -1310,7 +1310,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1351,7 +1351,7 @@
     <t>Codes identifying the normal value of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|5.0.0</t>
   </si>
   <si>
     <t>value:IVL_PQ.normal</t>
@@ -1375,7 +1375,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1408,7 +1408,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|5.0.0</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1449,6 +1449,10 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
     <t>Related resource that belongs to the Observation group</t>
   </si>
   <si>
@@ -1464,7 +1468,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|ImagingSelection|5.0.0|QuestionnaireResponse|5.0.0|Observation|5.0.0|MolecularSequence|5.0.0|GenomicStudy|5.0.0)
 </t>
   </si>
   <si>
@@ -1525,7 +1529,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1536,7 +1540,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1918,7 +1922,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1933,7 +1937,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -7997,16 +8001,16 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8080,7 +8084,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>200</v>
@@ -8091,10 +8095,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8117,16 +8121,16 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8176,7 +8180,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8200,10 +8204,10 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8211,10 +8215,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8240,16 +8244,16 @@
         <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8298,7 +8302,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8322,10 +8326,10 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>20</v>
@@ -8333,10 +8337,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8451,10 +8455,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8571,10 +8575,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8693,10 +8697,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8722,13 +8726,13 @@
         <v>234</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>249</v>
@@ -8759,10 +8763,10 @@
         <v>357</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8780,7 +8784,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>93</v>
@@ -8801,7 +8805,7 @@
         <v>253</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>255</v>
@@ -8815,10 +8819,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8841,16 +8845,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>315</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>317</v>
@@ -8902,7 +8906,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8923,7 +8927,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>320</v>
@@ -8937,10 +8941,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8966,13 +8970,13 @@
         <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>327</v>
@@ -9024,7 +9028,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9059,10 +9063,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9146,7 +9150,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9181,10 +9185,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9210,10 +9214,10 @@
         <v>82</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>401</v>
@@ -9268,7 +9272,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -999,8 +999,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1537,10 +1537,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -5578,13 +5574,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -8845,16 +8841,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>315</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>317</v>
@@ -8927,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>320</v>
@@ -8941,10 +8937,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8970,13 +8966,13 @@
         <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>327</v>
@@ -9028,7 +9024,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9063,10 +9059,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9150,7 +9146,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9185,10 +9181,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9214,10 +9210,10 @@
         <v>82</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>401</v>
@@ -9272,7 +9268,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4351,7 +4351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>211</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>244</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>257</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>273</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>284</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>452</v>
       </c>
@@ -9303,12 +9303,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
